--- a/data/trans_dic/P62A$viudedad-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$viudedad-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02173503149329494</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06152838519408062</v>
+        <v>0.0615283851940806</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03911182487201521</v>
@@ -697,7 +697,7 @@
         <v>0.007298137393967633</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08646115011780407</v>
+        <v>0.08646115011780409</v>
       </c>
     </row>
     <row r="5">
@@ -711,31 +711,31 @@
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.05468264305440075</v>
+        <v>0.05543902492957228</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04683817707622408</v>
+        <v>0.04824570960798956</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04985371023578832</v>
+        <v>0.04821883428191157</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03091858170647881</v>
+        <v>0.02765966242019033</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01408664941241949</v>
+        <v>0.01415004230728387</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01740952686680962</v>
+        <v>0.01705442039970616</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05456975069560728</v>
+        <v>0.05308269956480884</v>
       </c>
     </row>
     <row r="6">
@@ -749,31 +749,31 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1589821983414252</v>
+        <v>0.1635367554518702</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2479872675155084</v>
+        <v>0.2512680518129985</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2668530582435379</v>
+        <v>0.2674484266235757</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.121597418478063</v>
+        <v>0.09209962725773953</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1214479800469802</v>
+        <v>0.112958218284306</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08483489600025342</v>
+        <v>0.08150735342797093</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1059351887247359</v>
+        <v>0.1047470649174125</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03477655423908476</v>
+        <v>0.03663954731304651</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1301082171889785</v>
+        <v>0.1292657801600615</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01833816387186198</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1352386006715359</v>
+        <v>0.1352386006715358</v>
       </c>
     </row>
     <row r="8">
@@ -837,31 +837,31 @@
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.07372182989131722</v>
+        <v>0.07337322152569578</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05396035190153513</v>
+        <v>0.05353115440132043</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09377586966413366</v>
+        <v>0.09578093068758255</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01524089199154098</v>
+        <v>0.008728409263236248</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09874205593815219</v>
+        <v>0.09535320175431169</v>
       </c>
     </row>
     <row r="9">
@@ -872,36 +872,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05839403546321077</v>
+        <v>0.08196825808071588</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1861426953611247</v>
+        <v>0.1863459637174323</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2465228097142771</v>
+        <v>0.264103971338007</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2906450283308358</v>
+        <v>0.3109446268157456</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1789615338907228</v>
+        <v>0.1760495533276515</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.233887481371407</v>
+        <v>0.2332572962492383</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07981058002530847</v>
+        <v>0.07784361976539213</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08320947355457022</v>
+        <v>0.08570836481250203</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06435176580772232</v>
+        <v>0.06540966873756458</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1902804804235104</v>
+        <v>0.1940157370856527</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.106009911755336</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08666212713745479</v>
+        <v>0.08666212713745478</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02152437082376123</v>
@@ -965,31 +965,31 @@
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.1579979070102066</v>
+        <v>0.1528546428989093</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03524923955908621</v>
+        <v>0.03492595446076858</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1382425513771788</v>
+        <v>0.1500150301971145</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0259093984448624</v>
+        <v>0.03394059441999166</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04302804370824556</v>
+        <v>0.03916777531255357</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005349220994438363</v>
+        <v>0.005151866516467618</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0381735866184545</v>
+        <v>0.0405898172072934</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.007566130583376335</v>
+        <v>0.005565624527846123</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1356523199406319</v>
+        <v>0.1336888492960548</v>
       </c>
     </row>
     <row r="12">
@@ -1001,35 +1001,35 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.05079512031165943</v>
+        <v>0.04490151678347531</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.2868818435235602</v>
+        <v>0.2840979576848473</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3687101561589914</v>
+        <v>0.3887086651373913</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3641870215593611</v>
+        <v>0.3759306109716574</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2280095517317037</v>
+        <v>0.2608607084326158</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1700170839058958</v>
+        <v>0.1576716171290392</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05926551206483498</v>
+        <v>0.0574855639395959</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1080462743570897</v>
+        <v>0.1104202160763941</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06055476260111205</v>
+        <v>0.05482659257705656</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2294528930682301</v>
+        <v>0.2267593205349209</v>
       </c>
     </row>
     <row r="13">
@@ -1093,31 +1093,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1185342780804291</v>
+        <v>0.1169665019296458</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1007849600811672</v>
+        <v>0.09674517396323762</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09238440989127653</v>
+        <v>0.09661908626219202</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08582324801274986</v>
+        <v>0.08619911277258024</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08540451252925831</v>
+        <v>0.08346542117231814</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02206576299457487</v>
+        <v>0.02347269144659723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02279309938025083</v>
+        <v>0.02489007301249853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02652628761363768</v>
+        <v>0.0263295592148813</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1160932793705924</v>
+        <v>0.1176616695164688</v>
       </c>
     </row>
     <row r="15">
@@ -1130,34 +1130,34 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.0136243018601465</v>
+        <v>0.01519997312914979</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1922235769785554</v>
+        <v>0.1922801491957905</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2409348515008843</v>
+        <v>0.2436820537514839</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2387339729404289</v>
+        <v>0.2453808505154157</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2023217926136751</v>
+        <v>0.2060575694839226</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1725866696634322</v>
+        <v>0.1695505963218603</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05792272792646751</v>
+        <v>0.05726782738421319</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06382681819486288</v>
+        <v>0.06430276562474878</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06551295749686917</v>
+        <v>0.065586450661275</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.174212060538634</v>
+        <v>0.1717529952431852</v>
       </c>
     </row>
     <row r="16">
@@ -1193,7 +1193,7 @@
         <v>0.1818829211031853</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.09203312536874428</v>
+        <v>0.09203312536874425</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1768876129495389</v>
@@ -1221,31 +1221,31 @@
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.1026036349001617</v>
+        <v>0.1072460860807842</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2389169568839775</v>
+        <v>0.2391141387628855</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2158380870089729</v>
+        <v>0.2134047018572146</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1312737552403997</v>
+        <v>0.1297496129347709</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06896643164127846</v>
+        <v>0.06616611381479473</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1228191443271518</v>
+        <v>0.1211237922088051</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1291342834283352</v>
+        <v>0.1321770058229164</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06638334864623344</v>
+        <v>0.06727936631650995</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09069316824852187</v>
+        <v>0.09017764522944124</v>
       </c>
     </row>
     <row r="18">
@@ -1257,35 +1257,35 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.03504580945483669</v>
+        <v>0.03360944875497774</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.2106938724724295</v>
+        <v>0.208911214187008</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4249781177995499</v>
+        <v>0.4261198009834019</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3347341610174511</v>
+        <v>0.3354256729560992</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2430256747278412</v>
+        <v>0.2467126030538984</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1252372809211449</v>
+        <v>0.1267364918828688</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.241969356551538</v>
+        <v>0.2370271640267706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2049680971013334</v>
+        <v>0.2094610929185541</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1272662769457031</v>
+        <v>0.1321412383912047</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1447683242458701</v>
+        <v>0.1431980201485114</v>
       </c>
     </row>
     <row r="19">
@@ -1349,31 +1349,31 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.0871182911076369</v>
+        <v>0.07727088334500302</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.766082432780907</v>
+        <v>0.7694632446029381</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7528895922551758</v>
+        <v>0.7604112656762837</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7404375860288099</v>
+        <v>0.7308242664711466</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01109848895748565</v>
+        <v>0.01118969538576331</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7409705593867725</v>
+        <v>0.7361298143889479</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7142828758454071</v>
+        <v>0.7137748360781926</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7061149654882038</v>
+        <v>0.7101527692310341</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02000479745147228</v>
+        <v>0.02065196459390297</v>
       </c>
     </row>
     <row r="21">
@@ -1384,36 +1384,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4641025250516558</v>
+        <v>0.3900857370258387</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.6805128935070748</v>
+        <v>0.6607440509843047</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8604050762298482</v>
+        <v>0.8621960205776062</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8542989717156086</v>
+        <v>0.8558784597961612</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8438295398561059</v>
+        <v>0.8442293757145064</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04250845213810782</v>
+        <v>0.04332759906655326</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8367538324206935</v>
+        <v>0.8351262327661561</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8154940576940958</v>
+        <v>0.8150989134395826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8169265459684526</v>
+        <v>0.8176860287965473</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.06434035568523737</v>
+        <v>0.06375560405486493</v>
       </c>
     </row>
     <row r="22">
@@ -1481,31 +1481,31 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.133448549144555</v>
+        <v>0.1334168622004309</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3967503892272641</v>
+        <v>0.3930566790140714</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3225197271358057</v>
+        <v>0.3221672776480973</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06677833266472342</v>
+        <v>0.06684770173838465</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.195191306899015</v>
+        <v>0.1950011247736812</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1828218760025273</v>
+        <v>0.1811177462489197</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1423471914405916</v>
+        <v>0.1437304098883247</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1050104026708756</v>
+        <v>0.1068731363507067</v>
       </c>
     </row>
     <row r="24">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.009752050922548845</v>
+        <v>0.01094219616320476</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01325967187296638</v>
+        <v>0.01260135278555953</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.005220963545092714</v>
+        <v>0.006582593334828463</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1772983781766589</v>
+        <v>0.1772465836983916</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4708057355363304</v>
+        <v>0.4706883488149062</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.393298574866623</v>
+        <v>0.3977847437961801</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09620029604938186</v>
+        <v>0.09543547923805515</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2433736179441298</v>
+        <v>0.2395488883364583</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2223868102522418</v>
+        <v>0.2207773305099338</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1810718063195679</v>
+        <v>0.180705324040585</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1332328814026558</v>
+        <v>0.134989742495783</v>
       </c>
     </row>
     <row r="25">
@@ -1825,31 +1825,31 @@
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>6395</v>
+        <v>6483</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1953</v>
+        <v>2011</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1856</v>
+        <v>1796</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2245</v>
+        <v>2008</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1868</v>
+        <v>1830</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10343</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="7">
@@ -1863,31 +1863,31 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>18592</v>
+        <v>19124</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10339</v>
+        <v>10476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9937</v>
+        <v>9959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6035</v>
+        <v>4571</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8817</v>
+        <v>8201</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10923</v>
+        <v>10494</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>11365</v>
+        <v>11237</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5140</v>
+        <v>5416</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>24661</v>
+        <v>24501</v>
       </c>
     </row>
     <row r="8">
@@ -1995,31 +1995,31 @@
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>8607</v>
+        <v>8566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6434</v>
+        <v>6571</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2023</v>
+        <v>1158</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>18302</v>
+        <v>17674</v>
       </c>
     </row>
     <row r="11">
@@ -2030,36 +2030,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4439</v>
+        <v>6231</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>21731</v>
+        <v>21755</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6375</v>
+        <v>6830</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10849</v>
+        <v>11607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6511</v>
+        <v>6405</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16046</v>
+        <v>16003</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8131</v>
+        <v>7931</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>11044</v>
+        <v>11375</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7436</v>
+        <v>7559</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>35268</v>
+        <v>35961</v>
       </c>
     </row>
     <row r="12">
@@ -2167,31 +2167,31 @@
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>22658</v>
+        <v>21921</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8146</v>
+        <v>8840</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1272</v>
+        <v>1666</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2440</v>
+        <v>2221</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9315</v>
+        <v>9905</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1686</v>
+        <v>1240</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27145</v>
+        <v>26752</v>
       </c>
     </row>
     <row r="15">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>9402</v>
+        <v>8311</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>41141</v>
+        <v>40742</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7827</v>
+        <v>8251</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21460</v>
+        <v>22152</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11190</v>
+        <v>12802</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9640</v>
+        <v>8940</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8273</v>
+        <v>8024</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26365</v>
+        <v>26944</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13495</v>
+        <v>12219</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>45916</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="16">
@@ -2339,31 +2339,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>38114</v>
+        <v>37610</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11390</v>
+        <v>10934</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10702</v>
+        <v>11192</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12407</v>
+        <v>12462</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11757</v>
+        <v>11490</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10473</v>
+        <v>11141</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>10613</v>
+        <v>11590</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13006</v>
+        <v>12909</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>53311</v>
+        <v>54031</v>
       </c>
     </row>
     <row r="19">
@@ -2376,34 +2376,34 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>4710</v>
+        <v>5255</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61809</v>
+        <v>61827</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27229</v>
+        <v>27539</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27654</v>
+        <v>28424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>29250</v>
+        <v>29790</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23758</v>
+        <v>23341</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>27492</v>
+        <v>27182</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29720</v>
+        <v>29941</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>32120</v>
+        <v>32157</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>79999</v>
+        <v>78870</v>
       </c>
     </row>
     <row r="20">
@@ -2511,31 +2511,31 @@
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>15490</v>
+        <v>16190</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>24168</v>
+        <v>24188</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>48900</v>
+        <v>48349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>27070</v>
+        <v>26756</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16712</v>
+        <v>16034</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22581</v>
+        <v>22269</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>48974</v>
+        <v>50128</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>26546</v>
+        <v>26904</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>35669</v>
+        <v>35466</v>
       </c>
     </row>
     <row r="23">
@@ -2547,35 +2547,35 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>5351</v>
+        <v>5132</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>31807</v>
+        <v>31538</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42989</v>
+        <v>43104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>75837</v>
+        <v>75994</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>50115</v>
+        <v>50875</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>30348</v>
+        <v>30711</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>44487</v>
+        <v>43579</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>77735</v>
+        <v>79439</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>50892</v>
+        <v>52841</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>56936</v>
+        <v>56318</v>
       </c>
     </row>
     <row r="24">
@@ -2683,31 +2683,31 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>908</v>
+        <v>806</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>209246</v>
+        <v>210170</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>202696</v>
+        <v>204721</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>184127</v>
+        <v>181736</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2346</v>
+        <v>2365</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>210015</v>
+        <v>208643</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>203798</v>
+        <v>203654</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>181553</v>
+        <v>182592</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>4437</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="27">
@@ -2718,36 +2718,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4777</v>
+        <v>4016</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>7095</v>
+        <v>6889</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>235009</v>
+        <v>235498</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>229998</v>
+        <v>230423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>209838</v>
+        <v>209937</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8986</v>
+        <v>9159</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>237163</v>
+        <v>236701</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>232676</v>
+        <v>232563</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>210045</v>
+        <v>210240</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>14272</v>
+        <v>14142</v>
       </c>
     </row>
     <row r="28">
@@ -2859,31 +2859,31 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>114769</v>
+        <v>114742</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>295625</v>
+        <v>292873</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>236906</v>
+        <v>236647</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>52707</v>
+        <v>52762</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>256120</v>
+        <v>255870</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>295115</v>
+        <v>292364</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>232527</v>
+        <v>234787</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>173195</v>
+        <v>176267</v>
       </c>
     </row>
     <row r="31">
@@ -2894,40 +2894,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7178</v>
+        <v>8054</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11524</v>
+        <v>10952</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4694</v>
+        <v>5918</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>152481</v>
+        <v>152437</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>350805</v>
+        <v>350717</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>288896</v>
+        <v>292191</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>75930</v>
+        <v>75326</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>319342</v>
+        <v>314323</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>358982</v>
+        <v>356384</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>295785</v>
+        <v>295186</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>219743</v>
+        <v>222640</v>
       </c>
     </row>
     <row r="32">
